--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1183"/>
+  <dimension ref="A1:I1184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42871,6 +42871,43 @@
         </is>
       </c>
     </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E1184" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1184"/>
+  <dimension ref="A1:I1185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42908,6 +42908,43 @@
         </is>
       </c>
     </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E1185" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1185"/>
+  <dimension ref="A1:I1186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42945,6 +42945,41 @@
         </is>
       </c>
     </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E1186" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1186"/>
+  <dimension ref="A1:I1187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42980,6 +42980,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E1187" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1187"/>
+  <dimension ref="A1:I1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43017,6 +43017,43 @@
         </is>
       </c>
     </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E1188" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1188" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1188"/>
+  <dimension ref="A1:I1189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43054,6 +43054,41 @@
         </is>
       </c>
     </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>196700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1189"/>
+  <dimension ref="A1:I1190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43089,6 +43089,43 @@
         <v>196700</v>
       </c>
     </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E1190" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1190"/>
+  <dimension ref="A1:I1191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43126,6 +43126,41 @@
         </is>
       </c>
     </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1191"/>
+  <dimension ref="A1:I1192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43161,6 +43161,43 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1192" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1192"/>
+  <dimension ref="A1:I1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43198,6 +43198,78 @@
         </is>
       </c>
     </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43270,6 +43270,78 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>170900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43342,6 +43342,43 @@
         <v>170900</v>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43379,6 +43379,43 @@
         </is>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43416,6 +43416,43 @@
         </is>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43453,6 +43453,41 @@
         </is>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>372900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43488,6 +43488,80 @@
         <v>372900</v>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43562,6 +43562,43 @@
         </is>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43599,6 +43599,43 @@
         </is>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2198"/>
+  <dimension ref="A1:I2199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78426,6 +78426,41 @@
         </is>
       </c>
     </row>
+    <row r="2199">
+      <c r="A2199" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2199" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2199" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2199" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G2199" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2199" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2199" t="n">
+        <v>380300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2199"/>
+  <dimension ref="A1:I2200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78461,6 +78461,41 @@
         <v>380300</v>
       </c>
     </row>
+    <row r="2200">
+      <c r="A2200" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2200" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2200" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2200" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2200" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2200" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2200" t="n">
+        <v>110100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2200"/>
+  <dimension ref="A1:I2201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78496,6 +78496,41 @@
         <v>110100</v>
       </c>
     </row>
+    <row r="2201">
+      <c r="A2201" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2201" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2201" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2201" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2201" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2201" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2201" t="n">
+        <v>101700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2201"/>
+  <dimension ref="A1:I2202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78531,6 +78531,43 @@
         <v>101700</v>
       </c>
     </row>
+    <row r="2202">
+      <c r="A2202" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2202" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2202" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2202" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2202" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2202" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2202" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2202"/>
+  <dimension ref="A1:I2203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78568,6 +78568,43 @@
         </is>
       </c>
     </row>
+    <row r="2203">
+      <c r="A2203" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2203" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2203" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2203" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2203" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2203" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2203"/>
+  <dimension ref="A1:I2204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78605,6 +78605,43 @@
         </is>
       </c>
     </row>
+    <row r="2204">
+      <c r="A2204" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2204" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2204" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2204" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2204" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2204" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2204"/>
+  <dimension ref="A1:I2205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78642,6 +78642,43 @@
         </is>
       </c>
     </row>
+    <row r="2205">
+      <c r="A2205" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2205" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2205" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2205" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2205" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2205" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2205"/>
+  <dimension ref="A1:I2206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78679,6 +78679,41 @@
         </is>
       </c>
     </row>
+    <row r="2206">
+      <c r="A2206" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2206" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2206" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2206" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2206" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2206" t="n">
+        <v>300100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2206"/>
+  <dimension ref="A1:I2207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78714,6 +78714,41 @@
         <v>300100</v>
       </c>
     </row>
+    <row r="2207">
+      <c r="A2207" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2207" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2207" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2207" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2207" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2207" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2207" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2207"/>
+  <dimension ref="A1:I2208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78749,6 +78749,41 @@
         <v>200</v>
       </c>
     </row>
+    <row r="2208">
+      <c r="A2208" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2208" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2208" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2208" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2208" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2208" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2208" t="n">
+        <v>240200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2208"/>
+  <dimension ref="A1:I2209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78784,6 +78784,43 @@
         <v>240200</v>
       </c>
     </row>
+    <row r="2209">
+      <c r="A2209" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2209" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2209" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2209" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2209" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2209" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2209" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2209"/>
+  <dimension ref="A1:I2210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78821,6 +78821,43 @@
         </is>
       </c>
     </row>
+    <row r="2210">
+      <c r="A2210" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2210" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2210" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2210" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2210" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2210" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2210"/>
+  <dimension ref="A1:I2211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78858,6 +78858,41 @@
         </is>
       </c>
     </row>
+    <row r="2211">
+      <c r="A2211" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2211" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2211" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2211" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2211" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2211" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2211" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2211" t="n">
+        <v>198600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2211"/>
+  <dimension ref="A1:I2212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78893,6 +78893,43 @@
         <v>198600</v>
       </c>
     </row>
+    <row r="2212">
+      <c r="A2212" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2212" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2212" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2212" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2212" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2212" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2212" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2212"/>
+  <dimension ref="A1:I2213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78930,6 +78930,43 @@
         </is>
       </c>
     </row>
+    <row r="2213">
+      <c r="A2213" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2213" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2213" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2213" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2213" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2213" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2213"/>
+  <dimension ref="A1:I2214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78967,6 +78967,41 @@
         </is>
       </c>
     </row>
+    <row r="2214">
+      <c r="A2214" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2214" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2214" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2214" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2214" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2214" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2214" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2214" t="n">
+        <v>851400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2214"/>
+  <dimension ref="A1:I2215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79002,6 +79002,43 @@
         <v>851400</v>
       </c>
     </row>
+    <row r="2215">
+      <c r="A2215" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2215" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2215" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2215" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2215" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2215" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2215" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2215"/>
+  <dimension ref="A1:I2216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79039,6 +79039,41 @@
         </is>
       </c>
     </row>
+    <row r="2216">
+      <c r="A2216" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2216" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2216" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2216" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2216" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2216" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2216" t="n">
+        <v>5300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2216"/>
+  <dimension ref="A1:I2217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79074,6 +79074,43 @@
         <v>5300</v>
       </c>
     </row>
+    <row r="2217">
+      <c r="A2217" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2217" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2217" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2217" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2217" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2217" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2217" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2217"/>
+  <dimension ref="A1:I2218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79111,6 +79111,43 @@
         </is>
       </c>
     </row>
+    <row r="2218">
+      <c r="A2218" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2218" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2218" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2218" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2218" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2218" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2218" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2218"/>
+  <dimension ref="A1:I2219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79148,6 +79148,43 @@
         </is>
       </c>
     </row>
+    <row r="2219">
+      <c r="A2219" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2219" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2219" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2219" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2219" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2219" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2219" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2219"/>
+  <dimension ref="A1:I2220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79185,6 +79185,43 @@
         </is>
       </c>
     </row>
+    <row r="2220">
+      <c r="A2220" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2220" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2220" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2220" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2220" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2220" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2220"/>
+  <dimension ref="A1:I2221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79222,6 +79222,41 @@
         </is>
       </c>
     </row>
+    <row r="2221">
+      <c r="A2221" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2221" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2221" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2221" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2221" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2221" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2221" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2221" t="n">
+        <v>111500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2221"/>
+  <dimension ref="A1:I2222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79257,6 +79257,43 @@
         <v>111500</v>
       </c>
     </row>
+    <row r="2222">
+      <c r="A2222" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2222" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2222" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2222" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2222" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2222" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2222"/>
+  <dimension ref="A1:I2224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79294,6 +79294,78 @@
         </is>
       </c>
     </row>
+    <row r="2223">
+      <c r="A2223" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2223" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2223" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2223" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2223" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2223" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2224" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2224" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2224" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2224" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2224" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2224" t="n">
+        <v>80000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2224"/>
+  <dimension ref="A1:I2226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79366,6 +79366,80 @@
         <v>80000</v>
       </c>
     </row>
+    <row r="2225">
+      <c r="A2225" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2225" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2225" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2225" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2225" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2225" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2226" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2226" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2226" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2226" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2226" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2226"/>
+  <dimension ref="A1:I2227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79440,6 +79440,43 @@
         </is>
       </c>
     </row>
+    <row r="2227">
+      <c r="A2227" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2227" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2227" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2227" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2227" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2227" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0153.xlsx
+++ b/data/0153.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2227"/>
+  <dimension ref="A1:I2230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79477,6 +79477,117 @@
         </is>
       </c>
     </row>
+    <row r="2228">
+      <c r="A2228" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2228" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2228" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2228" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2228" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2228" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2229" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2229" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2229" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2229" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2229" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2230" t="inlineStr">
+        <is>
+          <t>0153</t>
+        </is>
+      </c>
+      <c r="D2230" t="inlineStr">
+        <is>
+          <t>OVERSEA</t>
+        </is>
+      </c>
+      <c r="E2230" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2230" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2230" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
